--- a/form/static/血液血清手開帳單v3.0.xlsx
+++ b/form/static/血液血清手開帳單v3.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\手開帳單原檔\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\ntucmform\ntucmlac_form\ntucmlab_userform\form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AC8187-7931-494C-8B9A-3B28EE6633CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837BD850-013D-40D2-8192-139853901DC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12645" yWindow="165" windowWidth="15330" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12648" yWindow="168" windowWidth="15336" windowHeight="15252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 " sheetId="1" r:id="rId1"/>
@@ -480,16 +480,35 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,10 +516,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -508,23 +523,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -894,37 +894,37 @@
   </sheetPr>
   <dimension ref="A1:IW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="84" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A10" zoomScaleNormal="84" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="15" customWidth="1"/>
     <col min="6" max="6" width="9" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" style="15" customWidth="1"/>
     <col min="9" max="1025" width="9" style="15" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" s="16" customFormat="1" ht="27.75">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:257" s="16" customFormat="1" ht="28.2">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:257" s="16" customFormat="1" ht="25.5">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:257" s="16" customFormat="1" ht="24.6">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -932,23 +932,23 @@
       <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:257" s="16" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="18"/>
     </row>
-    <row r="4" spans="1:257" s="20" customFormat="1" ht="19.5">
+    <row r="4" spans="1:257" s="20" customFormat="1" ht="19.8">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="19"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -957,36 +957,36 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:257" s="20" customFormat="1" ht="19.5">
+    <row r="6" spans="1:257" s="20" customFormat="1" ht="19.8">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:257" s="20" customFormat="1" ht="19.5">
+    <row r="7" spans="1:257" s="20" customFormat="1" ht="19.8">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1013,60 +1013,60 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:257" s="20" customFormat="1" ht="19.5">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:257" s="20" customFormat="1" ht="19.8">
+      <c r="A10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:257" s="20" customFormat="1" ht="19.5">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:257" s="20" customFormat="1" ht="19.8">
+      <c r="A11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="37">
         <f>110*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:257" s="20" customFormat="1" ht="19.5">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:257" s="20" customFormat="1" ht="19.8">
+      <c r="A12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="37">
         <f>450*E12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:257" ht="9" customHeight="1">
@@ -1080,8 +1080,8 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:257">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1103,12 +1103,12 @@
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:257" s="31" customFormat="1" ht="19.5">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:257" s="31" customFormat="1" ht="19.8">
+      <c r="A16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="28">
         <f>SUM(F11:G12)*D14</f>
         <v>0</v>
@@ -1367,12 +1367,12 @@
       <c r="IV16" s="30"/>
       <c r="IW16" s="30"/>
     </row>
-    <row r="17" spans="1:257" s="31" customFormat="1" ht="19.5">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:257" s="31" customFormat="1" ht="19.8">
+      <c r="A17" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="28">
         <f>ROUND(D16*0.05,0)</f>
         <v>0</v>
@@ -1631,12 +1631,12 @@
       <c r="IV17" s="30"/>
       <c r="IW17" s="30"/>
     </row>
-    <row r="18" spans="1:257" s="20" customFormat="1" ht="19.5">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:257" s="20" customFormat="1" ht="19.8">
+      <c r="A18" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="5">
         <f>SUM(D16:D17)</f>
         <v>0</v>
@@ -1656,210 +1656,210 @@
       <c r="G19" s="27"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:257" ht="25.7" customHeight="1">
+    <row r="20" spans="1:257" ht="25.65" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:257" ht="30.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:257" ht="16.5" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:257">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:257">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:257">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:257">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:257">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:257">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:257">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:257">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:257">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:257">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="161.25" customHeight="1">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
       <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
       <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
       <c r="H39" s="14"/>
     </row>
   </sheetData>
@@ -1867,18 +1867,6 @@
     <protectedRange password="CAA6" sqref="F16:G17" name="總價"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="A22:G39"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="F12:G12"/>
@@ -1888,6 +1876,18 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74861111111111101" header="0.51180555555555496" footer="0.31527777777777799"/>
